--- a/data/save_data/2021/alaniz_r. j..xlsx
+++ b/data/save_data/2021/alaniz_r. j..xlsx
@@ -502,7 +502,7 @@
         <v>-2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>-7</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>-1</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>-2</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>-2</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>

--- a/data/save_data/2021/alaniz_r. j..xlsx
+++ b/data/save_data/2021/alaniz_r. j..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -499,7 +499,7 @@
         <v>-2</v>
       </c>
       <c r="F2" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>-7</v>
       </c>
       <c r="F3" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -601,7 +601,7 @@
         <v>-5</v>
       </c>
       <c r="F5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -666,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="E8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="n">
         <v>-1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-2</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
